--- a/results/gurobi_cplex_comparison/seed_30_k_30.xlsx
+++ b/results/gurobi_cplex_comparison/seed_30_k_30.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.006</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="F2">
-        <v>0.022</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.015</v>
+        <v>1.169</v>
       </c>
       <c r="F3">
-        <v>0.033</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.026</v>
+        <v>1.616</v>
       </c>
       <c r="F4">
-        <v>0.039</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.023</v>
+        <v>2.1</v>
       </c>
       <c r="F5">
-        <v>0.042</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.021</v>
+        <v>2.682</v>
       </c>
       <c r="F6">
-        <v>0.048</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.018</v>
+        <v>3.281</v>
       </c>
       <c r="F7">
-        <v>0.053</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.031</v>
+        <v>3.986</v>
       </c>
       <c r="F8">
-        <v>0.063</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.036</v>
+        <v>4.711</v>
       </c>
       <c r="F9">
-        <v>0.061</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.028</v>
+        <v>5.561</v>
       </c>
       <c r="F10">
-        <v>0.063</v>
+        <v>1.205</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.139</v>
+        <v>6.532</v>
       </c>
       <c r="F11">
-        <v>122.293</v>
+        <v>100.719</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.094</v>
+        <v>7.44</v>
       </c>
       <c r="F12">
-        <v>98.60299999999999</v>
+        <v>82.254</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.16</v>
+        <v>8.539</v>
       </c>
       <c r="F13">
-        <v>125.523</v>
+        <v>127.943</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08400000000000001</v>
+        <v>9.529</v>
       </c>
       <c r="F14">
-        <v>122.244</v>
+        <v>108.041</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.041</v>
+        <v>10.678</v>
       </c>
       <c r="F15">
-        <v>106.149</v>
+        <v>117.192</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.074</v>
+        <v>11.948</v>
       </c>
       <c r="F16">
-        <v>119.443</v>
+        <v>99.095</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.125</v>
+        <v>13.318</v>
       </c>
       <c r="F17">
-        <v>122.822</v>
+        <v>116.824</v>
       </c>
     </row>
   </sheetData>
